--- a/data/pca/factorExposure/factorExposure_2014-12-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-12-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.009984163526618645</v>
+        <v>-0.01104895025778492</v>
       </c>
       <c r="C2">
-        <v>-0.05240467487028251</v>
+        <v>0.06399568938905766</v>
       </c>
       <c r="D2">
-        <v>-0.1621193095473499</v>
+        <v>0.02972046909350234</v>
       </c>
       <c r="E2">
-        <v>0.1254977727084456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.1519630534639358</v>
+      </c>
+      <c r="F2">
+        <v>0.06550692527778479</v>
+      </c>
+      <c r="G2">
+        <v>-0.1100151731488948</v>
+      </c>
+      <c r="H2">
+        <v>-0.06729388621621694</v>
+      </c>
+      <c r="I2">
+        <v>0.07630660650555732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0361052287793947</v>
+        <v>-0.01967608963549494</v>
       </c>
       <c r="C4">
-        <v>-0.1353481695551607</v>
+        <v>0.149941529518165</v>
       </c>
       <c r="D4">
-        <v>-0.1139258089122635</v>
+        <v>-0.000409893872468907</v>
       </c>
       <c r="E4">
-        <v>0.05267146912541318</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.1038794990838348</v>
+      </c>
+      <c r="F4">
+        <v>-0.0607385057871877</v>
+      </c>
+      <c r="G4">
+        <v>-0.05709780616120029</v>
+      </c>
+      <c r="H4">
+        <v>-0.1026343639121329</v>
+      </c>
+      <c r="I4">
+        <v>-0.02683198450435704</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.0150064039190815</v>
+        <v>-0.02966897667843672</v>
       </c>
       <c r="C6">
-        <v>-0.05316535427052586</v>
+        <v>0.06225757281378672</v>
       </c>
       <c r="D6">
-        <v>-0.08379864127786502</v>
+        <v>0.01133664614178405</v>
       </c>
       <c r="E6">
-        <v>0.07518948830251011</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.1112811688133206</v>
+      </c>
+      <c r="F6">
+        <v>0.03393398192473551</v>
+      </c>
+      <c r="G6">
+        <v>0.01408535684427703</v>
+      </c>
+      <c r="H6">
+        <v>-0.04236635111050591</v>
+      </c>
+      <c r="I6">
+        <v>0.02925302564467654</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.008918881833390133</v>
+        <v>-0.007505239401283175</v>
       </c>
       <c r="C7">
-        <v>-0.04702331895483108</v>
+        <v>0.06245027316592644</v>
       </c>
       <c r="D7">
-        <v>-0.05164383020057831</v>
+        <v>0.007895505418060665</v>
       </c>
       <c r="E7">
-        <v>0.04705249781591116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.0662482844175582</v>
+      </c>
+      <c r="F7">
+        <v>-0.02774744307662931</v>
+      </c>
+      <c r="G7">
+        <v>0.03283404582029389</v>
+      </c>
+      <c r="H7">
+        <v>-0.0837269693581122</v>
+      </c>
+      <c r="I7">
+        <v>0.005056029543617354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.01009321661363919</v>
+        <v>0.008408076292224013</v>
       </c>
       <c r="C8">
-        <v>-0.05507566067930619</v>
+        <v>0.06313320564198177</v>
       </c>
       <c r="D8">
-        <v>-0.08693636544228459</v>
+        <v>-0.01009445265289843</v>
       </c>
       <c r="E8">
-        <v>0.100036104289984</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.0853265849989758</v>
+      </c>
+      <c r="F8">
+        <v>-0.01882990277697967</v>
+      </c>
+      <c r="G8">
+        <v>-0.07764388371218159</v>
+      </c>
+      <c r="H8">
+        <v>-0.02218077638864076</v>
+      </c>
+      <c r="I8">
+        <v>0.0057559156868571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.02110304226629408</v>
+        <v>-0.01183200459106301</v>
       </c>
       <c r="C9">
-        <v>-0.1106372637596379</v>
+        <v>0.1183062326368392</v>
       </c>
       <c r="D9">
-        <v>-0.09015802917928803</v>
+        <v>0.001880107634402944</v>
       </c>
       <c r="E9">
-        <v>0.05285811622328038</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.08086976566423747</v>
+      </c>
+      <c r="F9">
+        <v>-0.01320703018718064</v>
+      </c>
+      <c r="G9">
+        <v>-0.01261340803331554</v>
+      </c>
+      <c r="H9">
+        <v>-0.09963337292949914</v>
+      </c>
+      <c r="I9">
+        <v>-0.0009725974132122502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.2344035863369452</v>
+        <v>-0.2446384899477295</v>
       </c>
       <c r="C10">
-        <v>0.09712384544382606</v>
+        <v>-0.08216132462793869</v>
       </c>
       <c r="D10">
-        <v>0.004675951908222554</v>
+        <v>-0.005162206384085304</v>
       </c>
       <c r="E10">
-        <v>-0.08935080097830056</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01550193402977682</v>
+      </c>
+      <c r="F10">
+        <v>-0.009707559463598952</v>
+      </c>
+      <c r="G10">
+        <v>-0.00101646584378018</v>
+      </c>
+      <c r="H10">
+        <v>-0.03235969290104919</v>
+      </c>
+      <c r="I10">
+        <v>-0.1877542788918666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.005768901211198859</v>
+        <v>-0.01142852872771952</v>
       </c>
       <c r="C11">
-        <v>-0.04810626404068333</v>
+        <v>0.07002613342971099</v>
       </c>
       <c r="D11">
-        <v>-0.04072776829513012</v>
+        <v>-0.005689323872650866</v>
       </c>
       <c r="E11">
-        <v>0.03522293977077817</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.05246982058947351</v>
+      </c>
+      <c r="F11">
+        <v>-0.01740809417640182</v>
+      </c>
+      <c r="G11">
+        <v>0.02735402520700536</v>
+      </c>
+      <c r="H11">
+        <v>-0.04050788708750463</v>
+      </c>
+      <c r="I11">
+        <v>0.0008051865515249446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01096945625067529</v>
+        <v>-0.01358992835781689</v>
       </c>
       <c r="C12">
-        <v>-0.05203723436653751</v>
+        <v>0.05955017877208088</v>
       </c>
       <c r="D12">
-        <v>-0.03279199673724819</v>
+        <v>0.001178812487655726</v>
       </c>
       <c r="E12">
-        <v>0.02404307869536902</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.03648325501049878</v>
+      </c>
+      <c r="F12">
+        <v>0.01056251541476109</v>
+      </c>
+      <c r="G12">
+        <v>0.03036241982384364</v>
+      </c>
+      <c r="H12">
+        <v>-0.04383123440100248</v>
+      </c>
+      <c r="I12">
+        <v>-0.009382230144030541</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.004980000366997275</v>
+        <v>-0.00260272221803886</v>
       </c>
       <c r="C13">
-        <v>-0.0616882421148179</v>
+        <v>0.09421567780773141</v>
       </c>
       <c r="D13">
-        <v>-0.1213824683565725</v>
+        <v>0.03327059481033331</v>
       </c>
       <c r="E13">
-        <v>0.1280655198500729</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.1631835257896808</v>
+      </c>
+      <c r="F13">
+        <v>0.09299158386098105</v>
+      </c>
+      <c r="G13">
+        <v>0.04211360302960493</v>
+      </c>
+      <c r="H13">
+        <v>-0.09809145627793828</v>
+      </c>
+      <c r="I13">
+        <v>-0.09064249522869385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.005169910958570321</v>
+        <v>-0.007257492942537529</v>
       </c>
       <c r="C14">
-        <v>-0.02997052362286985</v>
+        <v>0.05724712399976511</v>
       </c>
       <c r="D14">
-        <v>-0.05522814242119107</v>
+        <v>-0.008958719841538955</v>
       </c>
       <c r="E14">
-        <v>0.06600716959239243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.104619085779842</v>
+      </c>
+      <c r="F14">
+        <v>0.02360954468188411</v>
+      </c>
+      <c r="G14">
+        <v>0.06200228044870269</v>
+      </c>
+      <c r="H14">
+        <v>-0.1598118829349935</v>
+      </c>
+      <c r="I14">
+        <v>0.03457873938046752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.003698089809948173</v>
+        <v>0.00387495691553478</v>
       </c>
       <c r="C15">
-        <v>-0.03711968600814483</v>
+        <v>0.05575254259889791</v>
       </c>
       <c r="D15">
-        <v>-0.07809256193864021</v>
+        <v>0.006542962275597044</v>
       </c>
       <c r="E15">
-        <v>0.07511901353700032</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.07903505534435676</v>
+      </c>
+      <c r="F15">
+        <v>-0.01026292280354607</v>
+      </c>
+      <c r="G15">
+        <v>0.01804776644784689</v>
+      </c>
+      <c r="H15">
+        <v>-0.05100535575383894</v>
+      </c>
+      <c r="I15">
+        <v>0.01361983952579042</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.008831502048739148</v>
+        <v>-0.01148264695829179</v>
       </c>
       <c r="C16">
-        <v>-0.04595020839977644</v>
+        <v>0.06114247305241939</v>
       </c>
       <c r="D16">
-        <v>-0.03135294151202771</v>
+        <v>0.0003307706041661024</v>
       </c>
       <c r="E16">
-        <v>0.0238538345112309</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.03601730542111786</v>
+      </c>
+      <c r="F16">
+        <v>-0.003658023829762812</v>
+      </c>
+      <c r="G16">
+        <v>0.02977664324003492</v>
+      </c>
+      <c r="H16">
+        <v>-0.03761025834207207</v>
+      </c>
+      <c r="I16">
+        <v>-0.007089738491626922</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,10 +1216,22 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1245,225 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.003942503537285241</v>
+        <v>-0.003388338897706512</v>
       </c>
       <c r="C20">
-        <v>-0.04286373765085428</v>
+        <v>0.06847289476608366</v>
       </c>
       <c r="D20">
-        <v>-0.08092518225026592</v>
+        <v>0.01688241606295248</v>
       </c>
       <c r="E20">
-        <v>0.03953670070557658</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.07602597029476689</v>
+      </c>
+      <c r="F20">
+        <v>-0.0264378064009142</v>
+      </c>
+      <c r="G20">
+        <v>0.05875646569264377</v>
+      </c>
+      <c r="H20">
+        <v>-0.06700746531139783</v>
+      </c>
+      <c r="I20">
+        <v>-0.0003790370824996695</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.0057640460074029</v>
+        <v>-0.006882126358110529</v>
       </c>
       <c r="C21">
-        <v>-0.06067072343658368</v>
+        <v>0.06979895382021947</v>
       </c>
       <c r="D21">
-        <v>-0.1122788783207801</v>
+        <v>0.01244408548084716</v>
       </c>
       <c r="E21">
-        <v>0.0540131526308714</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.1008232192582171</v>
+      </c>
+      <c r="F21">
+        <v>0.08250241342379087</v>
+      </c>
+      <c r="G21">
+        <v>-0.005139562393933198</v>
+      </c>
+      <c r="H21">
+        <v>-0.1797531618868137</v>
+      </c>
+      <c r="I21">
+        <v>-0.04325607477440638</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.007052642509489249</v>
+        <v>0.01390152749284261</v>
       </c>
       <c r="C22">
-        <v>-0.07935042571425334</v>
+        <v>0.1151217488770852</v>
       </c>
       <c r="D22">
-        <v>-0.2774880255321392</v>
+        <v>0.0762034894023</v>
       </c>
       <c r="E22">
-        <v>0.1097377344071251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.2999637125290603</v>
+      </c>
+      <c r="F22">
+        <v>-0.08373751297965967</v>
+      </c>
+      <c r="G22">
+        <v>-0.340891530915695</v>
+      </c>
+      <c r="H22">
+        <v>0.4147940380095734</v>
+      </c>
+      <c r="I22">
+        <v>-0.0344850336755621</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.007326352939689609</v>
+        <v>0.01051846465956595</v>
       </c>
       <c r="C23">
-        <v>-0.08095025503825441</v>
+        <v>0.1186879280882096</v>
       </c>
       <c r="D23">
-        <v>-0.2765773629422925</v>
+        <v>0.07900147875334537</v>
       </c>
       <c r="E23">
-        <v>0.1090107550764931</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.2960976068632262</v>
+      </c>
+      <c r="F23">
+        <v>-0.0789491099427756</v>
+      </c>
+      <c r="G23">
+        <v>-0.3302586111335598</v>
+      </c>
+      <c r="H23">
+        <v>0.3872772109037613</v>
+      </c>
+      <c r="I23">
+        <v>-0.03654023327391344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.006794286005417313</v>
+        <v>-0.01271947109414231</v>
       </c>
       <c r="C24">
-        <v>-0.0730133976991082</v>
+        <v>0.07714039552155175</v>
       </c>
       <c r="D24">
-        <v>-0.03443621050430477</v>
+        <v>-0.0124661691440918</v>
       </c>
       <c r="E24">
-        <v>0.03987934096412251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.04585867542653069</v>
+      </c>
+      <c r="F24">
+        <v>-0.01025146057500357</v>
+      </c>
+      <c r="G24">
+        <v>0.02805839271612344</v>
+      </c>
+      <c r="H24">
+        <v>-0.05840358445280801</v>
+      </c>
+      <c r="I24">
+        <v>-0.001975044370828214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.01242228172861014</v>
+        <v>-0.01763567718524586</v>
       </c>
       <c r="C25">
-        <v>-0.06302298934423729</v>
+        <v>0.07123820704278153</v>
       </c>
       <c r="D25">
-        <v>-0.03446527964056915</v>
+        <v>-0.004537761398483432</v>
       </c>
       <c r="E25">
-        <v>0.0169849146398147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.0365764219565167</v>
+      </c>
+      <c r="F25">
+        <v>-0.01252002318288728</v>
+      </c>
+      <c r="G25">
+        <v>0.02420455165633153</v>
+      </c>
+      <c r="H25">
+        <v>-0.03918446354771307</v>
+      </c>
+      <c r="I25">
+        <v>-0.01984284571819313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.003737002208670129</v>
+        <v>-0.0171100908124843</v>
       </c>
       <c r="C26">
-        <v>-0.03276311998186547</v>
+        <v>0.05245219491201249</v>
       </c>
       <c r="D26">
-        <v>-0.0484440656785108</v>
+        <v>-0.02872613262012004</v>
       </c>
       <c r="E26">
-        <v>0.05875112390719385</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.07573341580225043</v>
+      </c>
+      <c r="F26">
+        <v>-0.003156102348418528</v>
+      </c>
+      <c r="G26">
+        <v>0.01926200016859065</v>
+      </c>
+      <c r="H26">
+        <v>-0.1290908177183799</v>
+      </c>
+      <c r="I26">
+        <v>-0.01518006205447256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.3124230194196767</v>
+        <v>-0.3121205423611345</v>
       </c>
       <c r="C28">
-        <v>0.1165604905841987</v>
+        <v>-0.1030112849799217</v>
       </c>
       <c r="D28">
-        <v>0.001373347834384734</v>
+        <v>0.009304776085224814</v>
       </c>
       <c r="E28">
-        <v>-0.07591703716845981</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.01919112390034308</v>
+      </c>
+      <c r="F28">
+        <v>-0.0332865269209287</v>
+      </c>
+      <c r="G28">
+        <v>-0.08115866760886113</v>
+      </c>
+      <c r="H28">
+        <v>-0.06826953748749648</v>
+      </c>
+      <c r="I28">
+        <v>-0.1859422493878417</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.001224909858176956</v>
+        <v>-0.005180519143046236</v>
       </c>
       <c r="C29">
-        <v>-0.03574582506894104</v>
+        <v>0.06265870176917261</v>
       </c>
       <c r="D29">
-        <v>-0.07137454109156678</v>
+        <v>-0.003612621610073175</v>
       </c>
       <c r="E29">
-        <v>0.08227057200825567</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.1215207307287041</v>
+      </c>
+      <c r="F29">
+        <v>0.03306158013214978</v>
+      </c>
+      <c r="G29">
+        <v>0.08525129527163131</v>
+      </c>
+      <c r="H29">
+        <v>-0.2016509658496404</v>
+      </c>
+      <c r="I29">
+        <v>0.05805540319754606</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02495085078872996</v>
+        <v>-0.02161575807557991</v>
       </c>
       <c r="C30">
-        <v>-0.1197560650260428</v>
+        <v>0.1335270581473474</v>
       </c>
       <c r="D30">
-        <v>-0.1260638310956478</v>
+        <v>0.0008681800391025117</v>
       </c>
       <c r="E30">
-        <v>0.09624135934413908</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.1178218888672661</v>
+      </c>
+      <c r="F30">
+        <v>-0.02452901173440299</v>
+      </c>
+      <c r="G30">
+        <v>-0.02363474688268966</v>
+      </c>
+      <c r="H30">
+        <v>-0.03662199896336742</v>
+      </c>
+      <c r="I30">
+        <v>0.02888688409415071</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.004067564892969193</v>
+        <v>-0.008290709668850782</v>
       </c>
       <c r="C31">
-        <v>-0.0964302417068966</v>
+        <v>0.0990701084888716</v>
       </c>
       <c r="D31">
-        <v>0.003898467176445727</v>
+        <v>-0.02174588669404678</v>
       </c>
       <c r="E31">
-        <v>0.02605907457420329</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.01097827705426955</v>
+      </c>
+      <c r="F31">
+        <v>0.003410025268216801</v>
+      </c>
+      <c r="G31">
+        <v>-0.01870630963189165</v>
+      </c>
+      <c r="H31">
+        <v>-0.05476783144655811</v>
+      </c>
+      <c r="I31">
+        <v>-0.02152798900449633</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01552760956305137</v>
+        <v>-0.01732884914291952</v>
       </c>
       <c r="C32">
-        <v>-0.05512512727800061</v>
+        <v>0.06278483995087424</v>
       </c>
       <c r="D32">
-        <v>-0.1380071210511105</v>
+        <v>0.02720233075223644</v>
       </c>
       <c r="E32">
-        <v>0.0505765077381686</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.1069639711934026</v>
+      </c>
+      <c r="F32">
+        <v>0.03373690157935003</v>
+      </c>
+      <c r="G32">
+        <v>-0.04071068463436204</v>
+      </c>
+      <c r="H32">
+        <v>-0.1059524861849418</v>
+      </c>
+      <c r="I32">
+        <v>-0.2132479686643253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.001445872870141918</v>
+        <v>-0.008358055250695587</v>
       </c>
       <c r="C33">
-        <v>-0.07550994086450566</v>
+        <v>0.09937844392549962</v>
       </c>
       <c r="D33">
-        <v>-0.06405152911553341</v>
+        <v>0.008128613132855554</v>
       </c>
       <c r="E33">
-        <v>0.05551467954508673</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.08120578080809442</v>
+      </c>
+      <c r="F33">
+        <v>-0.003860043445797196</v>
+      </c>
+      <c r="G33">
+        <v>0.02472906340994705</v>
+      </c>
+      <c r="H33">
+        <v>-0.06097773281281307</v>
+      </c>
+      <c r="I33">
+        <v>-0.03068001289088773</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.001617773281139731</v>
+        <v>-0.01082079872529483</v>
       </c>
       <c r="C34">
-        <v>-0.05440219190812927</v>
+        <v>0.05654606389619471</v>
       </c>
       <c r="D34">
-        <v>-0.02060318660740088</v>
+        <v>-0.005933997600244172</v>
       </c>
       <c r="E34">
-        <v>0.01965002594817839</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02620608923823881</v>
+      </c>
+      <c r="F34">
+        <v>0.002526040822250489</v>
+      </c>
+      <c r="G34">
+        <v>0.02893131093418626</v>
+      </c>
+      <c r="H34">
+        <v>-0.01510426319292525</v>
+      </c>
+      <c r="I34">
+        <v>-0.02565373458918657</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0.0009686402087895051</v>
+        <v>-0.006023951577918883</v>
       </c>
       <c r="C35">
-        <v>-0.004033922493739722</v>
+        <v>0.02862164877674991</v>
       </c>
       <c r="D35">
-        <v>-0.01138022168232277</v>
+        <v>0.003145393839102532</v>
       </c>
       <c r="E35">
-        <v>0.004692126330386327</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.04677641411697846</v>
+      </c>
+      <c r="F35">
+        <v>0.003008011984606892</v>
+      </c>
+      <c r="G35">
+        <v>0.03770479102940435</v>
+      </c>
+      <c r="H35">
+        <v>-0.1153078599294371</v>
+      </c>
+      <c r="I35">
+        <v>0.005046112776383516</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.003922741925026968</v>
+        <v>-0.01008226332676746</v>
       </c>
       <c r="C36">
-        <v>-0.03319740874189561</v>
+        <v>0.04363704438559479</v>
       </c>
       <c r="D36">
-        <v>-0.04367818613611973</v>
+        <v>-0.01704699392992527</v>
       </c>
       <c r="E36">
-        <v>0.06407919248575666</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.06966759525870006</v>
+      </c>
+      <c r="F36">
+        <v>-0.002118164970173383</v>
+      </c>
+      <c r="G36">
+        <v>0.01368333738809368</v>
+      </c>
+      <c r="H36">
+        <v>-0.07556680340601463</v>
+      </c>
+      <c r="I36">
+        <v>-0.002914206776883419</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.003252203052709422</v>
+        <v>-0.005017536006112492</v>
       </c>
       <c r="C38">
-        <v>-0.02615454561560518</v>
+        <v>0.05026090524268644</v>
       </c>
       <c r="D38">
-        <v>-0.04765328265522457</v>
+        <v>-0.00221483400437497</v>
       </c>
       <c r="E38">
-        <v>0.0480076525941942</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.07522978977715399</v>
+      </c>
+      <c r="F38">
+        <v>-0.04713980567726845</v>
+      </c>
+      <c r="G38">
+        <v>-0.0004857488004300363</v>
+      </c>
+      <c r="H38">
+        <v>-0.06341886320659725</v>
+      </c>
+      <c r="I38">
+        <v>-0.04039290566152318</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.00905707339767562</v>
+        <v>-0.01024821473379415</v>
       </c>
       <c r="C39">
-        <v>-0.09621250999723235</v>
+        <v>0.116230007774358</v>
       </c>
       <c r="D39">
-        <v>-0.08890544820421781</v>
+        <v>-0.01179614107108137</v>
       </c>
       <c r="E39">
-        <v>0.06979191689985711</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.08198442188072284</v>
+      </c>
+      <c r="F39">
+        <v>0.005096072791004306</v>
+      </c>
+      <c r="G39">
+        <v>0.04583636288507727</v>
+      </c>
+      <c r="H39">
+        <v>-0.05182934993294286</v>
+      </c>
+      <c r="I39">
+        <v>0.04803272491351027</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.004572629649516505</v>
+        <v>-0.0114320170372684</v>
       </c>
       <c r="C40">
-        <v>-0.02712479137688914</v>
+        <v>0.05533505478681998</v>
       </c>
       <c r="D40">
-        <v>-0.0742560424193477</v>
+        <v>0.01241836384832588</v>
       </c>
       <c r="E40">
-        <v>0.1053931376107305</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.1299467935887796</v>
+      </c>
+      <c r="F40">
+        <v>0.01746105077105749</v>
+      </c>
+      <c r="G40">
+        <v>0.062776938501033</v>
+      </c>
+      <c r="H40">
+        <v>0.003322605733368857</v>
+      </c>
+      <c r="I40">
+        <v>-0.0176139626929593</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.005184994297087345</v>
+        <v>-0.01662593173532974</v>
       </c>
       <c r="C41">
-        <v>-0.02914939750520395</v>
+        <v>0.04726298713880173</v>
       </c>
       <c r="D41">
-        <v>-0.0005852552089989117</v>
+        <v>-0.0009068597568478795</v>
       </c>
       <c r="E41">
-        <v>-0.005937982494235454</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.008762688700705954</v>
+      </c>
+      <c r="F41">
+        <v>-0.006910847309656022</v>
+      </c>
+      <c r="G41">
+        <v>0.01353122785165661</v>
+      </c>
+      <c r="H41">
+        <v>-0.03367960826283527</v>
+      </c>
+      <c r="I41">
+        <v>-0.04813223080760791</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.005018242581936813</v>
+        <v>-0.008935445873497046</v>
       </c>
       <c r="C43">
-        <v>-0.02448399503217969</v>
+        <v>0.04073268609178417</v>
       </c>
       <c r="D43">
-        <v>-0.01906414434127718</v>
+        <v>-0.009130736545430352</v>
       </c>
       <c r="E43">
-        <v>0.01549402494352109</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.03385448124583751</v>
+      </c>
+      <c r="F43">
+        <v>-0.01701232643255559</v>
+      </c>
+      <c r="G43">
+        <v>0.01864764514269363</v>
+      </c>
+      <c r="H43">
+        <v>-0.05058908184726112</v>
+      </c>
+      <c r="I43">
+        <v>-0.0241157781629564</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01750907454635631</v>
+        <v>-0.00690563252636769</v>
       </c>
       <c r="C44">
-        <v>-0.06776078228798889</v>
+        <v>0.08257939229068695</v>
       </c>
       <c r="D44">
-        <v>-0.105944607442318</v>
+        <v>-0.01360836904711131</v>
       </c>
       <c r="E44">
-        <v>0.0734699823781849</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.1113274504825361</v>
+      </c>
+      <c r="F44">
+        <v>-0.006096638435478763</v>
+      </c>
+      <c r="G44">
+        <v>-0.001020814282738874</v>
+      </c>
+      <c r="H44">
+        <v>-0.02953239485861489</v>
+      </c>
+      <c r="I44">
+        <v>0.02817232684987061</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1999,196 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.00140744815770144</v>
+        <v>0.0007147621943533027</v>
       </c>
       <c r="C46">
-        <v>-0.04228261570197785</v>
+        <v>0.05603150706307432</v>
       </c>
       <c r="D46">
-        <v>-0.05990908166974952</v>
+        <v>-0.008767145422495366</v>
       </c>
       <c r="E46">
-        <v>0.08875508287702569</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.08213454059227225</v>
+      </c>
+      <c r="F46">
+        <v>-0.005132134948873628</v>
+      </c>
+      <c r="G46">
+        <v>0.04935387073515145</v>
+      </c>
+      <c r="H46">
+        <v>-0.1223201504720269</v>
+      </c>
+      <c r="I46">
+        <v>0.01553969680587908</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.03104483787187836</v>
+        <v>-0.02557587160359457</v>
       </c>
       <c r="C47">
-        <v>-0.1244702397482308</v>
+        <v>0.1124080987949311</v>
       </c>
       <c r="D47">
-        <v>0.006578475661986233</v>
+        <v>-0.02165822363569026</v>
       </c>
       <c r="E47">
-        <v>-0.02770443671580934</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01090756375914176</v>
+      </c>
+      <c r="F47">
+        <v>-0.01330830638066915</v>
+      </c>
+      <c r="G47">
+        <v>-0.005783219452369593</v>
+      </c>
+      <c r="H47">
+        <v>-0.07711977962334225</v>
+      </c>
+      <c r="I47">
+        <v>-0.03229537667514967</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.01089700343815091</v>
+        <v>-0.01623666783947206</v>
       </c>
       <c r="C48">
-        <v>-0.03656192329771246</v>
+        <v>0.04939624321039174</v>
       </c>
       <c r="D48">
-        <v>-0.03233407411228671</v>
+        <v>-0.02818538457399869</v>
       </c>
       <c r="E48">
-        <v>0.08134072569201561</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.07171317350496265</v>
+      </c>
+      <c r="F48">
+        <v>-0.01003043224982337</v>
+      </c>
+      <c r="G48">
+        <v>0.01374787955542252</v>
+      </c>
+      <c r="H48">
+        <v>-0.1240893629388159</v>
+      </c>
+      <c r="I48">
+        <v>0.002673699161089792</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.003931039363470484</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.007850145032556785</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.00726522609355634</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>5.744249494627928e-05</v>
+      </c>
+      <c r="F49">
+        <v>0.004603149402762737</v>
+      </c>
+      <c r="G49">
+        <v>0.02187917504517322</v>
+      </c>
+      <c r="H49">
+        <v>0.005670652902886914</v>
+      </c>
+      <c r="I49">
+        <v>-0.001336165528519368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.00853643793480823</v>
+        <v>-0.01094585231144329</v>
       </c>
       <c r="C50">
-        <v>-0.06240286801314589</v>
+        <v>0.07462107110449304</v>
       </c>
       <c r="D50">
-        <v>-0.01885147409194697</v>
+        <v>-0.001693630231672226</v>
       </c>
       <c r="E50">
-        <v>0.02372228632036475</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.02417389755026976</v>
+      </c>
+      <c r="F50">
+        <v>-0.01190818215643821</v>
+      </c>
+      <c r="G50">
+        <v>-0.0153438022647781</v>
+      </c>
+      <c r="H50">
+        <v>-0.05889800642418812</v>
+      </c>
+      <c r="I50">
+        <v>-0.04502369144696895</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.002470991148846494</v>
+        <v>0.005165694451929728</v>
       </c>
       <c r="C51">
-        <v>-0.02146041751561609</v>
+        <v>0.03012030371304176</v>
       </c>
       <c r="D51">
-        <v>-0.08106976395238559</v>
+        <v>0.001672001142709832</v>
       </c>
       <c r="E51">
-        <v>0.06328357970600409</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.06820945000350552</v>
+      </c>
+      <c r="F51">
+        <v>0.007150268243070355</v>
+      </c>
+      <c r="G51">
+        <v>-0.003357993629787819</v>
+      </c>
+      <c r="H51">
+        <v>-0.1061332162457666</v>
+      </c>
+      <c r="I51">
+        <v>0.03025984086253745</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.06791577096169678</v>
+        <v>-0.05801517852249297</v>
       </c>
       <c r="C53">
-        <v>-0.1607922682975963</v>
+        <v>0.1565351874549184</v>
       </c>
       <c r="D53">
-        <v>0.04397098023269647</v>
+        <v>-0.0433837634700115</v>
       </c>
       <c r="E53">
-        <v>-0.02303871941239082</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.07604446373958158</v>
+      </c>
+      <c r="F53">
+        <v>-0.007379531419571414</v>
+      </c>
+      <c r="G53">
+        <v>-0.02298728188347155</v>
+      </c>
+      <c r="H53">
+        <v>-0.01403989632766921</v>
+      </c>
+      <c r="I53">
+        <v>-0.02015782394871638</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.008062034920823918</v>
+        <v>-0.01447334726520453</v>
       </c>
       <c r="C54">
-        <v>-0.04109567963527747</v>
+        <v>0.05923397068308209</v>
       </c>
       <c r="D54">
-        <v>-0.06588461180618203</v>
+        <v>0.02206573864294667</v>
       </c>
       <c r="E54">
-        <v>0.01730121476725591</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.05231483104750622</v>
+      </c>
+      <c r="F54">
+        <v>-0.01141930595216118</v>
+      </c>
+      <c r="G54">
+        <v>0.007500042712917805</v>
+      </c>
+      <c r="H54">
+        <v>-0.09206602366408366</v>
+      </c>
+      <c r="I54">
+        <v>0.03565082257236422</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.04745621034008091</v>
+        <v>-0.03526537718364114</v>
       </c>
       <c r="C55">
-        <v>-0.1227203852209913</v>
+        <v>0.1126229836478378</v>
       </c>
       <c r="D55">
-        <v>0.04525312303051282</v>
+        <v>-0.04855491096187124</v>
       </c>
       <c r="E55">
-        <v>-0.005322610547461931</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.06035106127065293</v>
+      </c>
+      <c r="F55">
+        <v>0.004037862439995338</v>
+      </c>
+      <c r="G55">
+        <v>-0.01586410658299952</v>
+      </c>
+      <c r="H55">
+        <v>-0.02174952453540788</v>
+      </c>
+      <c r="I55">
+        <v>0.01696303804299391</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.07180388166120316</v>
+        <v>-0.05303012391653578</v>
       </c>
       <c r="C56">
-        <v>-0.1896608930536472</v>
+        <v>0.183399725469975</v>
       </c>
       <c r="D56">
-        <v>0.0579400968590208</v>
+        <v>-0.06567333080944364</v>
       </c>
       <c r="E56">
-        <v>-0.04824488171597531</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.1016466756550626</v>
+      </c>
+      <c r="F56">
+        <v>0.003446590267282487</v>
+      </c>
+      <c r="G56">
+        <v>-0.05971306471160914</v>
+      </c>
+      <c r="H56">
+        <v>0.0008247850928007273</v>
+      </c>
+      <c r="I56">
+        <v>-0.01998171630194569</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,214 +2347,370 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.01291366897337765</v>
+        <v>-0.00869145753034571</v>
       </c>
       <c r="C58">
-        <v>-0.1035975220704694</v>
+        <v>0.1361690066267023</v>
       </c>
       <c r="D58">
-        <v>-0.2943492847688564</v>
+        <v>0.06200750445947848</v>
       </c>
       <c r="E58">
-        <v>0.09987822279349837</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.2579264574853411</v>
+      </c>
+      <c r="F58">
+        <v>-0.04013744116892087</v>
+      </c>
+      <c r="G58">
+        <v>-0.246369406421779</v>
+      </c>
+      <c r="H58">
+        <v>0.008032820745281471</v>
+      </c>
+      <c r="I58">
+        <v>0.01543643642307095</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.2461722854973878</v>
+        <v>-0.270675371070618</v>
       </c>
       <c r="C59">
-        <v>0.05826041465829377</v>
+        <v>-0.04561787684319935</v>
       </c>
       <c r="D59">
-        <v>-0.07807967927605153</v>
+        <v>0.01735563208704348</v>
       </c>
       <c r="E59">
-        <v>0.0003953463175461941</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.04707021856797203</v>
+      </c>
+      <c r="F59">
+        <v>0.0203603736237363</v>
+      </c>
+      <c r="G59">
+        <v>-0.01405628262067565</v>
+      </c>
+      <c r="H59">
+        <v>0.02186394402975396</v>
+      </c>
+      <c r="I59">
+        <v>-0.1003656479611837</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1298254411435749</v>
+        <v>-0.1478107002495782</v>
       </c>
       <c r="C60">
-        <v>-0.1399890986620956</v>
+        <v>0.1568914047990306</v>
       </c>
       <c r="D60">
-        <v>-0.01733208111625312</v>
+        <v>-0.00990671555353927</v>
       </c>
       <c r="E60">
-        <v>0.05012461674043588</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.03425351164120132</v>
+      </c>
+      <c r="F60">
+        <v>0.07493171070197603</v>
+      </c>
+      <c r="G60">
+        <v>0.2889032217064492</v>
+      </c>
+      <c r="H60">
+        <v>0.2769381968215878</v>
+      </c>
+      <c r="I60">
+        <v>0.04989739832316858</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.0128330825430699</v>
+        <v>-0.01632433326824165</v>
       </c>
       <c r="C61">
-        <v>-0.07731445363249455</v>
+        <v>0.09774562250658493</v>
       </c>
       <c r="D61">
-        <v>-0.04924235329104597</v>
+        <v>-0.01289388848317579</v>
       </c>
       <c r="E61">
-        <v>0.05470155533976049</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.06006137951949109</v>
+      </c>
+      <c r="F61">
+        <v>-0.007367762210020901</v>
+      </c>
+      <c r="G61">
+        <v>0.05206029962518952</v>
+      </c>
+      <c r="H61">
+        <v>-0.05814057284647395</v>
+      </c>
+      <c r="I61">
+        <v>0.01468110799478856</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.0006367349728106886</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.0005710837204008664</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.001341875965725071</v>
       </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.0005529973222187737</v>
+      </c>
+      <c r="F62">
+        <v>-0.0007860195719143818</v>
+      </c>
+      <c r="G62">
+        <v>-0.002831709242051364</v>
+      </c>
+      <c r="H62">
+        <v>-0.005406103471011072</v>
+      </c>
+      <c r="I62">
+        <v>-0.002214756242819151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.001715854287276531</v>
+        <v>-0.01717495731437019</v>
       </c>
       <c r="C63">
-        <v>-0.05377286802401222</v>
+        <v>0.06837363115718667</v>
       </c>
       <c r="D63">
-        <v>-0.04220436867553535</v>
+        <v>-0.01816262523065524</v>
       </c>
       <c r="E63">
-        <v>0.03271643816298807</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.0568140926232309</v>
+      </c>
+      <c r="F63">
+        <v>-0.00113423460964701</v>
+      </c>
+      <c r="G63">
+        <v>0.03302142394816678</v>
+      </c>
+      <c r="H63">
+        <v>-0.0770538967224558</v>
+      </c>
+      <c r="I63">
+        <v>-0.01802205985455203</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.02363701858258952</v>
+        <v>-0.01682400593378208</v>
       </c>
       <c r="C64">
-        <v>-0.1244579170927678</v>
+        <v>0.1121453347966162</v>
       </c>
       <c r="D64">
-        <v>0.009671608856393486</v>
+        <v>-0.01934512613644426</v>
       </c>
       <c r="E64">
-        <v>0.05240414540400596</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.01564846598199345</v>
+      </c>
+      <c r="F64">
+        <v>-0.02383256218185628</v>
+      </c>
+      <c r="G64">
+        <v>0.02247978471468036</v>
+      </c>
+      <c r="H64">
+        <v>0.002460040661314098</v>
+      </c>
+      <c r="I64">
+        <v>0.001800468023975614</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.01535875097900598</v>
+        <v>-0.02328348472769238</v>
       </c>
       <c r="C65">
-        <v>-0.04929671178220391</v>
+        <v>0.07242650751077317</v>
       </c>
       <c r="D65">
-        <v>-0.07714972003829075</v>
+        <v>0.02264871133455566</v>
       </c>
       <c r="E65">
-        <v>0.0625076645780103</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.105377695881396</v>
+      </c>
+      <c r="F65">
+        <v>-0.01551582241250857</v>
+      </c>
+      <c r="G65">
+        <v>0.07479185677621822</v>
+      </c>
+      <c r="H65">
+        <v>0.005131131792563133</v>
+      </c>
+      <c r="I65">
+        <v>0.03276272665589052</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.007848826905582251</v>
+        <v>-0.009244544290321267</v>
       </c>
       <c r="C66">
-        <v>-0.1159384131154789</v>
+        <v>0.1414308807211336</v>
       </c>
       <c r="D66">
-        <v>-0.1257620474293645</v>
+        <v>0.01543516389792455</v>
       </c>
       <c r="E66">
-        <v>0.07974108359115674</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.1037451764049923</v>
+      </c>
+      <c r="F66">
+        <v>-0.002726389296908495</v>
+      </c>
+      <c r="G66">
+        <v>0.02427164705595687</v>
+      </c>
+      <c r="H66">
+        <v>-0.04974750384474017</v>
+      </c>
+      <c r="I66">
+        <v>0.03594633842488519</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.01458102329204611</v>
+        <v>-0.01602538668035663</v>
       </c>
       <c r="C67">
-        <v>-0.0283257926574452</v>
+        <v>0.04875481168484584</v>
       </c>
       <c r="D67">
-        <v>0.003891233845593495</v>
+        <v>-0.01863087474865853</v>
       </c>
       <c r="E67">
-        <v>0.03620850295893506</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.04168255509609414</v>
+      </c>
+      <c r="F67">
+        <v>-0.0417700515456638</v>
+      </c>
+      <c r="G67">
+        <v>0.0346581288190737</v>
+      </c>
+      <c r="H67">
+        <v>-0.04110679055439184</v>
+      </c>
+      <c r="I67">
+        <v>-0.02557112899773797</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2446167071478083</v>
+        <v>-0.2808693094311343</v>
       </c>
       <c r="C68">
-        <v>0.06971538911551498</v>
+        <v>-0.05520261924123306</v>
       </c>
       <c r="D68">
-        <v>-0.05247305900854601</v>
+        <v>0.03793682318730106</v>
       </c>
       <c r="E68">
-        <v>-0.007915459791361913</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.0401131910538018</v>
+      </c>
+      <c r="F68">
+        <v>-0.004538763810578566</v>
+      </c>
+      <c r="G68">
+        <v>-0.05425566459501918</v>
+      </c>
+      <c r="H68">
+        <v>0.0242987607903028</v>
+      </c>
+      <c r="I68">
+        <v>-0.1036946282418506</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.03159211747389327</v>
+        <v>-0.01447080074051334</v>
       </c>
       <c r="C69">
-        <v>-0.132212271633829</v>
+        <v>0.103035405687301</v>
       </c>
       <c r="D69">
-        <v>0.0160593645720854</v>
+        <v>-0.02477347722738882</v>
       </c>
       <c r="E69">
-        <v>0.02227648038212161</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.01834551597300712</v>
+      </c>
+      <c r="F69">
+        <v>-0.01293966249766581</v>
+      </c>
+      <c r="G69">
+        <v>-0.004397017901642764</v>
+      </c>
+      <c r="H69">
+        <v>-0.04719367045971154</v>
+      </c>
+      <c r="I69">
+        <v>-0.03699098636556791</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2590876102673135</v>
+        <v>-0.2688537152874626</v>
       </c>
       <c r="C71">
-        <v>0.08871124149123141</v>
+        <v>-0.07381490968842032</v>
       </c>
       <c r="D71">
-        <v>-0.04628009132569139</v>
+        <v>0.021523897592721</v>
       </c>
       <c r="E71">
-        <v>-0.03505107023644228</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03449943538429748</v>
+      </c>
+      <c r="F71">
+        <v>-0.0294099369229321</v>
+      </c>
+      <c r="G71">
+        <v>-0.01479131976505551</v>
+      </c>
+      <c r="H71">
+        <v>-0.06576017636844531</v>
+      </c>
+      <c r="I71">
+        <v>-0.120854082856828</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.06833172843582923</v>
+        <v>-0.06071580634964429</v>
       </c>
       <c r="C72">
-        <v>-0.1488210604422456</v>
+        <v>0.1494247528641618</v>
       </c>
       <c r="D72">
-        <v>-0.04304133598849537</v>
+        <v>-0.005756017060032513</v>
       </c>
       <c r="E72">
-        <v>0.1139657546442382</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.02589928386054167</v>
+      </c>
+      <c r="F72">
+        <v>0.006949866476567746</v>
+      </c>
+      <c r="G72">
+        <v>0.04683936045357361</v>
+      </c>
+      <c r="H72">
+        <v>0.0429766784607361</v>
+      </c>
+      <c r="I72">
+        <v>0.08654720697732728</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1177537526958619</v>
+        <v>-0.1484235432962708</v>
       </c>
       <c r="C73">
-        <v>-0.1519302506069826</v>
+        <v>0.1899154492197465</v>
       </c>
       <c r="D73">
-        <v>-0.005904408364881553</v>
+        <v>-0.02531609638054614</v>
       </c>
       <c r="E73">
-        <v>0.07407543686288144</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.04741039621871901</v>
+      </c>
+      <c r="F73">
+        <v>0.07821836260023832</v>
+      </c>
+      <c r="G73">
+        <v>0.4511234135542501</v>
+      </c>
+      <c r="H73">
+        <v>0.2722001686328669</v>
+      </c>
+      <c r="I73">
+        <v>-0.01731010981192004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.05115569657230667</v>
+        <v>-0.04274215486720393</v>
       </c>
       <c r="C74">
-        <v>-0.1184764077011886</v>
+        <v>0.1176564468320413</v>
       </c>
       <c r="D74">
-        <v>0.06585338239349181</v>
+        <v>-0.04412453639991681</v>
       </c>
       <c r="E74">
-        <v>-0.007986547908707993</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.06075546308282922</v>
+      </c>
+      <c r="F74">
+        <v>-0.01446532491611772</v>
+      </c>
+      <c r="G74">
+        <v>-0.009640218155275283</v>
+      </c>
+      <c r="H74">
+        <v>-0.01900517199091071</v>
+      </c>
+      <c r="I74">
+        <v>0.01062210631438172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.1245148283642874</v>
+        <v>-0.07910857955053284</v>
       </c>
       <c r="C75">
-        <v>-0.2548120329602266</v>
+        <v>0.2322438424097746</v>
       </c>
       <c r="D75">
-        <v>0.1616735283906423</v>
+        <v>-0.09529267490728321</v>
       </c>
       <c r="E75">
-        <v>-0.07283191421115195</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.2070202807991412</v>
+      </c>
+      <c r="F75">
+        <v>-0.08015754947097235</v>
+      </c>
+      <c r="G75">
+        <v>-0.07428355904439186</v>
+      </c>
+      <c r="H75">
+        <v>0.01418696684023872</v>
+      </c>
+      <c r="I75">
+        <v>-0.06868917252272107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.06199861925352931</v>
+        <v>-0.04623136496805857</v>
       </c>
       <c r="C76">
-        <v>-0.1668353729440341</v>
+        <v>0.1614655349990086</v>
       </c>
       <c r="D76">
-        <v>0.08154040504301313</v>
+        <v>-0.07165197210540035</v>
       </c>
       <c r="E76">
-        <v>-0.02309867465018309</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.08980636125370531</v>
+      </c>
+      <c r="F76">
+        <v>-0.00374723079960469</v>
+      </c>
+      <c r="G76">
+        <v>0.004003854472284854</v>
+      </c>
+      <c r="H76">
+        <v>-0.02437591385713669</v>
+      </c>
+      <c r="I76">
+        <v>-0.00648877089503102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02823452567383743</v>
+        <v>-0.02294661047178151</v>
       </c>
       <c r="C77">
-        <v>-0.1176127382951318</v>
+        <v>0.1890340056080818</v>
       </c>
       <c r="D77">
-        <v>-0.4783463682279717</v>
+        <v>0.9389860764327793</v>
       </c>
       <c r="E77">
-        <v>-0.7959267210905482</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.2491089962223895</v>
+      </c>
+      <c r="F77">
+        <v>-0.0254846239437836</v>
+      </c>
+      <c r="G77">
+        <v>0.03053970025459414</v>
+      </c>
+      <c r="H77">
+        <v>-0.05124031017811648</v>
+      </c>
+      <c r="I77">
+        <v>0.02891275358427831</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02184653162482727</v>
+        <v>-0.02471552161284436</v>
       </c>
       <c r="C78">
-        <v>-0.1058165597281167</v>
+        <v>0.108746353043074</v>
       </c>
       <c r="D78">
-        <v>-0.129044683594142</v>
+        <v>-0.03279206909134909</v>
       </c>
       <c r="E78">
-        <v>0.07719364494666074</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.08872376541708858</v>
+      </c>
+      <c r="F78">
+        <v>0.0251025106209833</v>
+      </c>
+      <c r="G78">
+        <v>-0.06979428823069975</v>
+      </c>
+      <c r="H78">
+        <v>-0.1370480474067961</v>
+      </c>
+      <c r="I78">
+        <v>0.1245092543250229</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.109884630852005</v>
+        <v>-0.07367237279958602</v>
       </c>
       <c r="C79">
-        <v>-0.282259355082762</v>
+        <v>0.2306523173796233</v>
       </c>
       <c r="D79">
-        <v>0.1916417514204448</v>
+        <v>-0.09273672232798481</v>
       </c>
       <c r="E79">
-        <v>-0.09027104298271439</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.2260180769353645</v>
+      </c>
+      <c r="F79">
+        <v>0.005029156807297738</v>
+      </c>
+      <c r="G79">
+        <v>-0.159372497970341</v>
+      </c>
+      <c r="H79">
+        <v>-0.04019284824951189</v>
+      </c>
+      <c r="I79">
+        <v>-0.0529883477302473</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.007529706849933156</v>
+        <v>-0.007656017173963793</v>
       </c>
       <c r="C80">
-        <v>-0.05854180338056758</v>
+        <v>0.0574177136794741</v>
       </c>
       <c r="D80">
-        <v>-0.005957886175622412</v>
+        <v>-0.02704143046572916</v>
       </c>
       <c r="E80">
-        <v>0.04689112949797189</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.05415224831875742</v>
+      </c>
+      <c r="F80">
+        <v>0.06450387876896067</v>
+      </c>
+      <c r="G80">
+        <v>0.04967697917920028</v>
+      </c>
+      <c r="H80">
+        <v>0.03688655788792757</v>
+      </c>
+      <c r="I80">
+        <v>-0.0489320787869796</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.05357191088690616</v>
+        <v>-0.02815255654625367</v>
       </c>
       <c r="C81">
-        <v>-0.1448564576756007</v>
+        <v>0.1364529915277199</v>
       </c>
       <c r="D81">
-        <v>0.09439951630462694</v>
+        <v>-0.04681999421950302</v>
       </c>
       <c r="E81">
-        <v>-0.05122253154819134</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.08868611232967936</v>
+      </c>
+      <c r="F81">
+        <v>-0.01558216669123907</v>
+      </c>
+      <c r="G81">
+        <v>-0.04914276418960416</v>
+      </c>
+      <c r="H81">
+        <v>-0.0635135336829982</v>
+      </c>
+      <c r="I81">
+        <v>-0.07031801646511315</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.09999840203877075</v>
+        <v>-0.06268528067236964</v>
       </c>
       <c r="C82">
-        <v>-0.2281723171761711</v>
+        <v>0.1872379470191039</v>
       </c>
       <c r="D82">
-        <v>0.1346342152887246</v>
+        <v>-0.08908018344672664</v>
       </c>
       <c r="E82">
-        <v>-0.04516535125416261</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.1462075378994062</v>
+      </c>
+      <c r="F82">
+        <v>0.001172669210351572</v>
+      </c>
+      <c r="G82">
+        <v>-0.03480263906179502</v>
+      </c>
+      <c r="H82">
+        <v>-0.03991328639337845</v>
+      </c>
+      <c r="I82">
+        <v>-0.05533273279060035</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.004516471358234766</v>
+        <v>-0.0009159067590289552</v>
       </c>
       <c r="C83">
-        <v>-0.06163029642207224</v>
+        <v>0.02132459682004298</v>
       </c>
       <c r="D83">
-        <v>-0.05160915666223173</v>
+        <v>0.03336241129670791</v>
       </c>
       <c r="E83">
-        <v>0.008236913066081111</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.0002053352220744291</v>
+      </c>
+      <c r="F83">
+        <v>0.9457900387554923</v>
+      </c>
+      <c r="G83">
+        <v>-0.1577678458599111</v>
+      </c>
+      <c r="H83">
+        <v>0.02543780983835697</v>
+      </c>
+      <c r="I83">
+        <v>-0.1139121991777408</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.002859005783635123</v>
+        <v>0.002807027267993215</v>
       </c>
       <c r="C84">
-        <v>-0.02011661724532263</v>
+        <v>0.03212171098612266</v>
       </c>
       <c r="D84">
-        <v>-0.0408578628885004</v>
+        <v>-0.02953873616904595</v>
       </c>
       <c r="E84">
-        <v>0.06274724390312898</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.06896221167505315</v>
+      </c>
+      <c r="F84">
+        <v>-0.04256956522667302</v>
+      </c>
+      <c r="G84">
+        <v>-0.07309453655871936</v>
+      </c>
+      <c r="H84">
+        <v>-0.06824138998058771</v>
+      </c>
+      <c r="I84">
+        <v>0.05287760945899517</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.06221457321315482</v>
+        <v>-0.04106509094950041</v>
       </c>
       <c r="C85">
-        <v>-0.1832376548139505</v>
+        <v>0.16240578403441</v>
       </c>
       <c r="D85">
-        <v>0.1270338249867368</v>
+        <v>-0.09105958850083382</v>
       </c>
       <c r="E85">
-        <v>-0.04064561894187461</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1469925693505429</v>
+      </c>
+      <c r="F85">
+        <v>-0.007103722054115556</v>
+      </c>
+      <c r="G85">
+        <v>-0.05802430990961493</v>
+      </c>
+      <c r="H85">
+        <v>-0.01770012345756622</v>
+      </c>
+      <c r="I85">
+        <v>-0.03923029902147293</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.0187217593960844</v>
+        <v>-0.01368223619787298</v>
       </c>
       <c r="C86">
-        <v>-0.0380326795580996</v>
+        <v>0.06447249928880651</v>
       </c>
       <c r="D86">
-        <v>-0.1027749652779698</v>
+        <v>0.02460761389728246</v>
       </c>
       <c r="E86">
-        <v>-0.0416513173852744</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.06531174633501914</v>
+      </c>
+      <c r="F86">
+        <v>-0.03517390440079393</v>
+      </c>
+      <c r="G86">
+        <v>-0.0770128563662615</v>
+      </c>
+      <c r="H86">
+        <v>-0.07195308504980619</v>
+      </c>
+      <c r="I86">
+        <v>-0.07842933545434617</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02490565496448749</v>
+        <v>-0.01676934003804147</v>
       </c>
       <c r="C87">
-        <v>-0.0833890943043035</v>
+        <v>0.1043324262604534</v>
       </c>
       <c r="D87">
-        <v>-0.1501461766922236</v>
+        <v>0.04035503368215067</v>
       </c>
       <c r="E87">
-        <v>0.07773782644675467</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.1193637220588581</v>
+      </c>
+      <c r="F87">
+        <v>-0.009671703846451924</v>
+      </c>
+      <c r="G87">
+        <v>-0.05009636888241537</v>
+      </c>
+      <c r="H87">
+        <v>-0.02409892026319804</v>
+      </c>
+      <c r="I87">
+        <v>0.1443814247421764</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.02815518527791972</v>
+        <v>-0.03463982995867573</v>
       </c>
       <c r="C88">
-        <v>-0.07659685959118838</v>
+        <v>0.08225858875682447</v>
       </c>
       <c r="D88">
-        <v>0.04133794134364596</v>
+        <v>-0.02236102525712998</v>
       </c>
       <c r="E88">
-        <v>0.008017963551918019</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.003765964845862484</v>
+      </c>
+      <c r="F88">
+        <v>-0.008512622558703775</v>
+      </c>
+      <c r="G88">
+        <v>0.02546310778721617</v>
+      </c>
+      <c r="H88">
+        <v>-0.01002838019401669</v>
+      </c>
+      <c r="I88">
+        <v>-0.02888463897504303</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.4424652903135275</v>
+        <v>-0.4120284897785731</v>
       </c>
       <c r="C89">
-        <v>0.1677269610946619</v>
+        <v>-0.1337901579492641</v>
       </c>
       <c r="D89">
-        <v>0.01822289290630423</v>
+        <v>0.006626335422083743</v>
       </c>
       <c r="E89">
-        <v>0.2396400297758325</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.03213514869712832</v>
+      </c>
+      <c r="F89">
+        <v>0.09113864000416436</v>
+      </c>
+      <c r="G89">
+        <v>-0.1014313504807057</v>
+      </c>
+      <c r="H89">
+        <v>-0.0547464838726173</v>
+      </c>
+      <c r="I89">
+        <v>0.783325526023341</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.315712128996913</v>
+        <v>-0.3217728995381888</v>
       </c>
       <c r="C90">
-        <v>0.1106868141900006</v>
+        <v>-0.08297694019169435</v>
       </c>
       <c r="D90">
-        <v>-0.08974903287359799</v>
+        <v>0.02417373057021051</v>
       </c>
       <c r="E90">
-        <v>-3.22723653101163e-05</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.04733737750683208</v>
+      </c>
+      <c r="F90">
+        <v>-0.009321367866664088</v>
+      </c>
+      <c r="G90">
+        <v>-0.02201248547653765</v>
+      </c>
+      <c r="H90">
+        <v>0.01820806189574204</v>
+      </c>
+      <c r="I90">
+        <v>-0.1583542953486066</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.07723711497653332</v>
+        <v>-0.0603475878649902</v>
       </c>
       <c r="C91">
-        <v>-0.1895286918561292</v>
+        <v>0.157530659796288</v>
       </c>
       <c r="D91">
-        <v>0.1086396854647521</v>
+        <v>-0.052916042551783</v>
       </c>
       <c r="E91">
-        <v>-0.06850403876046847</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.1345791564036534</v>
+      </c>
+      <c r="F91">
+        <v>0.02545463307131834</v>
+      </c>
+      <c r="G91">
+        <v>-0.05194433917778217</v>
+      </c>
+      <c r="H91">
+        <v>-0.01221993465596359</v>
+      </c>
+      <c r="I91">
+        <v>-0.03093143780510032</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.3296882793280361</v>
+        <v>-0.3450020832047312</v>
       </c>
       <c r="C92">
-        <v>0.1529208706756892</v>
+        <v>-0.129181696850052</v>
       </c>
       <c r="D92">
-        <v>-0.06400026831113445</v>
+        <v>0.0480638890695373</v>
       </c>
       <c r="E92">
-        <v>-0.05124551397749384</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.04434207839542691</v>
+      </c>
+      <c r="F92">
+        <v>-0.0930782142327331</v>
+      </c>
+      <c r="G92">
+        <v>-0.03682292480799793</v>
+      </c>
+      <c r="H92">
+        <v>-0.03789000025170152</v>
+      </c>
+      <c r="I92">
+        <v>-0.165421355484265</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.3283947641188986</v>
+        <v>-0.3248240205337611</v>
       </c>
       <c r="C93">
-        <v>0.1373132046698316</v>
+        <v>-0.1204264437929949</v>
       </c>
       <c r="D93">
-        <v>0.00993536614869611</v>
+        <v>-0.006837874853526049</v>
       </c>
       <c r="E93">
-        <v>-0.01879323789366168</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.008924756644825012</v>
+      </c>
+      <c r="F93">
+        <v>-0.01823109539379226</v>
+      </c>
+      <c r="G93">
+        <v>-0.03609474211070712</v>
+      </c>
+      <c r="H93">
+        <v>-0.04062536594187791</v>
+      </c>
+      <c r="I93">
+        <v>-0.1044920075104046</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.1434099220444175</v>
+        <v>-0.1022160983490888</v>
       </c>
       <c r="C94">
-        <v>-0.3047026969456552</v>
+        <v>0.2618981105069113</v>
       </c>
       <c r="D94">
-        <v>0.2602045892719514</v>
+        <v>-0.1495966504304955</v>
       </c>
       <c r="E94">
-        <v>-0.08710291227715911</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.3658213887481001</v>
+      </c>
+      <c r="F94">
+        <v>-0.01892229502977036</v>
+      </c>
+      <c r="G94">
+        <v>-0.2441251354134762</v>
+      </c>
+      <c r="H94">
+        <v>0.1224762435306499</v>
+      </c>
+      <c r="I94">
+        <v>0.1675537831869659</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.03407331350772697</v>
+        <v>-0.03614936428369978</v>
       </c>
       <c r="C95">
-        <v>-0.06256485018785277</v>
+        <v>0.1052123634884885</v>
       </c>
       <c r="D95">
-        <v>-0.006701122992629145</v>
+        <v>0.006152414038295379</v>
       </c>
       <c r="E95">
-        <v>0.01786661477538738</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.04207931693118221</v>
+      </c>
+      <c r="F95">
+        <v>-0.03967702615229252</v>
+      </c>
+      <c r="G95">
+        <v>0.1241132621112599</v>
+      </c>
+      <c r="H95">
+        <v>-0.05567902036833816</v>
+      </c>
+      <c r="I95">
+        <v>-0.000349513964364138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.003419512894620181</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.00240359140714286</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.01965761509217039</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.006461068092830933</v>
+      </c>
+      <c r="F97">
+        <v>-0.01931512770092348</v>
+      </c>
+      <c r="G97">
+        <v>0.006487508763422672</v>
+      </c>
+      <c r="H97">
+        <v>-0.004920720801364531</v>
+      </c>
+      <c r="I97">
+        <v>-0.02381696348090117</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.09333793771209142</v>
+        <v>-0.1277353901008771</v>
       </c>
       <c r="C98">
-        <v>-0.1226356862401801</v>
+        <v>0.1535116190900467</v>
       </c>
       <c r="D98">
-        <v>-0.06165389250018807</v>
+        <v>-0.02684000944917191</v>
       </c>
       <c r="E98">
-        <v>0.07447954176182717</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.0755799689082144</v>
+      </c>
+      <c r="F98">
+        <v>0.04275851531520089</v>
+      </c>
+      <c r="G98">
+        <v>0.3922338273670242</v>
+      </c>
+      <c r="H98">
+        <v>0.3242860349951741</v>
+      </c>
+      <c r="I98">
+        <v>0.03721606625008533</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.00267688613011299</v>
+        <v>-0.005402327486865316</v>
       </c>
       <c r="C101">
-        <v>-0.03495716835119952</v>
+        <v>0.06132811025474338</v>
       </c>
       <c r="D101">
-        <v>-0.07068671529146184</v>
+        <v>-0.00311910658418029</v>
       </c>
       <c r="E101">
-        <v>0.08145710382537556</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.1198256183432311</v>
+      </c>
+      <c r="F101">
+        <v>0.03277946772934507</v>
+      </c>
+      <c r="G101">
+        <v>0.0842711753455429</v>
+      </c>
+      <c r="H101">
+        <v>-0.1994053880175755</v>
+      </c>
+      <c r="I101">
+        <v>0.05646010256796554</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.04739892595955539</v>
+        <v>-0.01792329565836552</v>
       </c>
       <c r="C102">
-        <v>-0.1259478622991488</v>
+        <v>0.07585490356982788</v>
       </c>
       <c r="D102">
-        <v>0.06650369867599858</v>
+        <v>-0.03454612132295629</v>
       </c>
       <c r="E102">
-        <v>-0.02245463813118038</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.08543646591487655</v>
+      </c>
+      <c r="F102">
+        <v>0.01426867590395358</v>
+      </c>
+      <c r="G102">
+        <v>-0.04062091654869517</v>
+      </c>
+      <c r="H102">
+        <v>-0.003044948314669188</v>
+      </c>
+      <c r="I102">
+        <v>0.007785603254554153</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
